--- a/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
+++ b/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD528D7-202B-43E1-ADA9-4BD78B9F4838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC5504E-DBE3-468C-93A5-48ED24A46CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -511,31 +511,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -641,7 +641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -694,7 +694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -757,17 +757,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -775,7 +775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -783,7 +783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -791,7 +791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -818,29 +818,29 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>

--- a/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
+++ b/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC5504E-DBE3-468C-93A5-48ED24A46CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F4BE0-3494-46B6-9F05-F98529747668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>dmorello@hl.com.test</t>
   </si>
   <si>
-    <t>Bingo#12345</t>
-  </si>
-  <si>
     <t>100.0</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>FO</t>
+  </si>
+  <si>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -649,13 +649,13 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -670,13 +670,13 @@
         <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>18</v>
@@ -702,13 +702,13 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -723,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
@@ -758,13 +758,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,30 +780,30 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Bingo@12345" xr:uid="{3F6B4232-98A0-40B9-82EA-0426FD211087}"/>
-    <hyperlink ref="B3" r:id="rId2" display="Bingo@12345" xr:uid="{F4445493-8186-46D0-9FCC-B2EAC44C9B13}"/>
-    <hyperlink ref="B4" r:id="rId3" display="Bingo@12345" xr:uid="{4F6DF857-D93A-4FC2-BAB7-8AD9EDE948CA}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3F6B4232-98A0-40B9-82EA-0426FD211087}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F4445493-8186-46D0-9FCC-B2EAC44C9B13}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4F6DF857-D93A-4FC2-BAB7-8AD9EDE948CA}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{2E8AF063-190E-4412-A845-5FB90138813D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -837,12 +837,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
+++ b/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F4BE0-3494-46B6-9F05-F98529747668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E00A12-3F08-4106-8024-EBB5C998462E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>LOB</t>
   </si>
@@ -44,9 +44,6 @@
     <t>ProductType</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>EventName</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>EventFormat</t>
   </si>
   <si>
-    <t>Test Houlihan</t>
-  </si>
-  <si>
     <t>NoOfGuest</t>
   </si>
   <si>
@@ -89,12 +83,6 @@
     <t>TeamMember</t>
   </si>
   <si>
-    <t>2000.0</t>
-  </si>
-  <si>
-    <t>2500.0</t>
-  </si>
-  <si>
     <t>HLInternalOppName</t>
   </si>
   <si>
@@ -128,18 +116,12 @@
     <t>FVA Management Request</t>
   </si>
   <si>
-    <t>Ayati Arvind</t>
-  </si>
-  <si>
     <t>EmailOrPhone</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>dmorello@hl.com.test</t>
-  </si>
-  <si>
     <t>100.0</t>
   </si>
   <si>
@@ -170,7 +152,10 @@
     <t>FO</t>
   </si>
   <si>
-    <t>Bingo@12345</t>
+    <t>Alan Test</t>
+  </si>
+  <si>
+    <t>Bingo@1234</t>
   </si>
 </sst>
 </file>
@@ -509,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +520,7 @@
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,199 +537,152 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -755,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,44 +705,41 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3F6B4232-98A0-40B9-82EA-0426FD211087}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{F4445493-8186-46D0-9FCC-B2EAC44C9B13}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4F6DF857-D93A-4FC2-BAB7-8AD9EDE948CA}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{2E8AF063-190E-4412-A845-5FB90138813D}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4445493-8186-46D0-9FCC-B2EAC44C9B13}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4F6DF857-D93A-4FC2-BAB7-8AD9EDE948CA}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{2E8AF063-190E-4412-A845-5FB90138813D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -812,37 +747,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
+++ b/TestData/T2278_TMTI0036294_TMTI0036296_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E00A12-3F08-4106-8024-EBB5C998462E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9BA34A-2F1A-43C0-8B93-8DE5C1974238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>Alan Test</t>
   </si>
   <si>
-    <t>Bingo@1234</t>
+    <t>Bingo@123456</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +738,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F4445493-8186-46D0-9FCC-B2EAC44C9B13}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{4F6DF857-D93A-4FC2-BAB7-8AD9EDE948CA}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{2E8AF063-190E-4412-A845-5FB90138813D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{2E8AF063-190E-4412-A845-5FB90138813D}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{7562AD2C-521B-4A10-929D-22313D2D39C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
